--- a/cta策略/result/螺纹/BBI_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/BBI_1d/绩效.xlsx
@@ -435,13 +435,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.003015044658342791</v>
+        <v>0.06081881226772579</v>
       </c>
       <c r="D2">
-        <v>-0.1360716449947048</v>
+        <v>0.09571680819048284</v>
       </c>
       <c r="E2">
-        <v>0.006529189657722146</v>
+        <v>0.1529991273780723</v>
       </c>
       <c r="F2">
         <v>0.6</v>
@@ -455,16 +455,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.1122986164234292</v>
+        <v>0.1258071377116889</v>
       </c>
       <c r="D3">
-        <v>0.2676697844168439</v>
+        <v>0.3953396981767523</v>
       </c>
       <c r="E3">
-        <v>0.3137876973846196</v>
+        <v>0.3883057572745229</v>
       </c>
       <c r="F3">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,13 +475,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.1003036489430507</v>
+        <v>0.1106213060322814</v>
       </c>
       <c r="D4">
-        <v>0.224011143695946</v>
+        <v>0.3259908302245497</v>
       </c>
       <c r="E4">
-        <v>0.2087997745839617</v>
+        <v>0.2599177119249658</v>
       </c>
       <c r="F4">
         <v>0.7</v>
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1468776673582799</v>
+        <v>0.1318007701540462</v>
       </c>
       <c r="D5">
-        <v>0.3984450891913951</v>
+        <v>0.4243495583862946</v>
       </c>
       <c r="E5">
-        <v>0.3703280806230519</v>
+        <v>0.3818541936029156</v>
       </c>
       <c r="F5">
         <v>0.75</v>
@@ -515,16 +515,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.09715538806628965</v>
+        <v>0.09567701390380678</v>
       </c>
       <c r="D6">
-        <v>0.2134753896901513</v>
+        <v>0.2575943023978095</v>
       </c>
       <c r="E6">
-        <v>0.231844022983222</v>
+        <v>0.2573584247778321</v>
       </c>
       <c r="F6">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/BBI_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/BBI_1d/绩效.xlsx
@@ -34,7 +34,7 @@
     <t>绩效数据</t>
   </si>
   <si>
-    <t>[2, 4, 8, 16]</t>
+    <t>[2, 4, 6, 16]</t>
   </si>
   <si>
     <t>[3, 6, 12, 24]</t>
@@ -435,16 +435,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.06081881226772579</v>
+        <v>-0.02366396796496562</v>
       </c>
       <c r="D2">
-        <v>0.09571680819048284</v>
+        <v>-0.287788747116396</v>
       </c>
       <c r="E2">
-        <v>0.1529991273780723</v>
+        <v>-0.04896757760498671</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,16 +455,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.1258071377116889</v>
+        <v>0.07698816461900138</v>
       </c>
       <c r="D3">
-        <v>0.3953396981767523</v>
+        <v>0.1684364788412218</v>
       </c>
       <c r="E3">
-        <v>0.3883057572745229</v>
+        <v>0.2175316825767127</v>
       </c>
       <c r="F3">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,13 +475,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.1106213060322814</v>
+        <v>0.06891647347478158</v>
       </c>
       <c r="D4">
-        <v>0.3259908302245497</v>
+        <v>0.132089347487157</v>
       </c>
       <c r="E4">
-        <v>0.2599177119249658</v>
+        <v>0.1460145577141413</v>
       </c>
       <c r="F4">
         <v>0.7</v>
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1318007701540462</v>
+        <v>0.0979090711833599</v>
       </c>
       <c r="D5">
-        <v>0.4243495583862946</v>
+        <v>0.2652578053987821</v>
       </c>
       <c r="E5">
-        <v>0.3818541936029156</v>
+        <v>0.2518730374039669</v>
       </c>
       <c r="F5">
         <v>0.75</v>
@@ -515,16 +515,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.09567701390380678</v>
+        <v>0.06606051545395264</v>
       </c>
       <c r="D6">
-        <v>0.2575943023978095</v>
+        <v>0.1195533674232229</v>
       </c>
       <c r="E6">
-        <v>0.2573584247778321</v>
+        <v>0.1604751274401434</v>
       </c>
       <c r="F6">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
